--- a/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_26052017_v2.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/Unit Test_Rapporto avanzamento non regression test App2.0_26052017_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\ISP\git\client-intesa\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\test\ESTERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="84" windowWidth="20124" windowHeight="8004" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="84" windowWidth="20124" windowHeight="8004" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Copertina" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
     <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
 </workbook>
@@ -614,12 +614,6 @@
     <t>standard (giro notturno)</t>
   </si>
   <si>
-    <t>Totale complessivo</t>
-  </si>
-  <si>
-    <t>Etichette di riga</t>
-  </si>
-  <si>
     <t>Client Mispayment Module</t>
   </si>
   <si>
@@ -642,6 +636,12 @@
   </si>
   <si>
     <t>BR17</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -1499,8 +1499,37 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,22 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1601,101 +1614,29 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="203">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
           <color theme="3"/>
         </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
         <right style="medium">
           <color theme="3"/>
         </right>
@@ -1708,212 +1649,64 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
+        <right/>
+        <top/>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
+        <right/>
+        <top/>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
+        <right/>
+        <bottom/>
+        <vertical/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -2028,59 +1821,298 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
-        <right/>
-        <bottom/>
-        <vertical/>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <right/>
-        <top/>
-        <vertical/>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <right/>
-        <top/>
-        <vertical/>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2088,26 +2120,116 @@
       </font>
     </dxf>
     <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color theme="3"/>
         </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
         <bottom style="medium">
           <color theme="3"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -2159,116 +2281,16 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCFF"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2277,30 +2299,119 @@
     </dxf>
     <dxf>
       <border>
-        <top style="medium">
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
           <color theme="3"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="medium">
+        <top style="thin">
           <color theme="3"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="medium">
+        <top style="thin">
           <color theme="3"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2330,6 +2441,87 @@
       <alignment horizontal="center" vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2463,8 +2655,657 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="3"/>
+        </left>
+        <right style="thin">
+          <color theme="3"/>
+        </right>
+        <top style="thin">
+          <color theme="3"/>
+        </top>
+        <bottom style="thin">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <right style="medium">
+          <color theme="3"/>
+        </right>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
       </font>
     </dxf>
   </dxfs>
@@ -2547,7 +3388,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2562,8 +3403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="3276600"/>
-          <a:ext cx="9258300" cy="2712720"/>
+          <a:off x="495300" y="2910840"/>
+          <a:ext cx="9258300" cy="2750820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,92 +3439,1601 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>select TEST.sndg, TEST.SEGMENT, color_app</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> TEST.sndg, TEST.SEGMENT, color_app, test.First_Risk_Matrix, test.detection_rationale </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> detection_rationale_NEW, old_app.detection_rationale </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> detection_rationale_OLD</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when old_App.semaforo_app = test.color_app then 1 else 0 END 	as check_colorApp		</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, BR000001, BR000002, BR000008, BR000015, BR000016, BR000017, AQR_Fatal, AQR_Trigger, FLG_Exc_4, FAST_TRACK </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> FAST_TRACK_OLD</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when old_App.RESULT_First_Risk_Matrix = test.First_Risk_Matrix OR fast_track = 1 then 1 else 0 END as check_First_Risk_Matrix</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, EXCEPTION_1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> EXCEPTION_1_OLD, EXCEPTION_2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> EXCEPTION_2_OLD</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when (AQR_FATAL = 'S00' and fast_track = 0 ) OR (AQR_FATAL &lt;&gt;'S00' and fast_track = 1  )then 1 else 0 END as check_FAST_TRACK</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> old_App.semaforo_app = test.color_app </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_colorApp</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when (AQr_TRIGGER = 'S00' AND EXCEPTION_1 = 0) OR fast_track = 1 then 1 ELSE 0 END 	as check_EXC_1</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> old_App.RESULT_First_Risk_Matrix = test.First_Risk_Matrix </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_First_Risk_Matrix</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when EXCEPTION_2 = FLG_Exc_2 OR fast_track = 1 THEN 1 ELSE 0 END 	as check_EXC_2</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AQR_FATAL = 'S00' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 0 ) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AQR_FATAL &lt;&gt;'S00' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 1  )</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_FAST_TRACK</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when EXCEPTION_3 = FLG_Exc_3 OR fast_track = 1 THEN 1 ELSE 0 END 	as check_EXC_3</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (AQr_TRIGGER = 'S00' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AND</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> EXCEPTION_1 = 0) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ELSE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_EXC_1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when RESULT_MODULE_01 = Client_Mispayment_Module OR fast_track = 1 then 1 else 0 END  as check_RESULT_MODULE_01</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> EXCEPTION_2 = FLG_Exc_4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>THEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ELSE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_EXC_2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	,case when RESULT_MODULE_02 =  Handling_Account_Module OR fast_track = 1 then 1 else 0 END  as check_RESULT_MODULE_02</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> RESULT_MODULE_01 = Client_Mispayment_Module_X </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> fast_track = 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_RESULT_MODULE_01</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>from OUTPUT_WEB_BIB_NEW_TEST test</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> test.detection_rationale = old_app.detection_rationale </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>THEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ELSE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_DETECTION</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>join OUTPUT_WEB_BE old_App on test.sndg = old_App.sndg  and old_App.country = test.country and old_App.segment = test.segment</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_WEB_BIR_NEW_TEST test</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>WHERE check_colorApp  = 0 OR check_First_Risk_Matrix = 0</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_WEB_BE_20170525 old_App </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> test.sndg = old_App.sndg  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> old_App.country = test.country </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> old_App.segment = test.segment</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>OR  check_FAST_TRACK = 0 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>OR check_EXC_1 = 0  OR check_EXC_2 = 0  OR check_EXC_3 = 0 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>OR check_RESULT_MODULE_01 = 0  OR check_RESULT_MODULE_02 = 0</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  check_colorApp  = 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_First_Risk_Matrix = 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  check_FAST_TRACK = 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_EXC_1 = 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_EXC_2 = 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_RESULT_MODULE_01 = 0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2694,13 +5044,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2836,13 +5186,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3008,8 +5358,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3025,7 +5375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="502920" y="678180"/>
-          <a:ext cx="7284720" cy="1805940"/>
+          <a:ext cx="7284720" cy="1722120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,62 +5410,526 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>select color_app, a.cont, b.cont</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> color_app, a.cont, b.cont, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>when</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> a.cont = b.cont </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>then</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>end</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> check_NUM, abs(a.cont - b.cont) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> diff_NUM</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>	, case when a.cont = b.cont then 1 else 0 end check_NUM, abs(a.cont - b.cont) as diff_NUM</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> color_app,count(*) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> cont</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>FROM 	(select color_app,count(*) as cont</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_WEB_BIR_NEW_TEST </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>		from OUTPUT_WEB_BIB_NEW_TEST </a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> color_app) a</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>		group by color_app) a</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JOIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>select</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> semaforo_app,count(*) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> cont</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>JOIN  	(select semaforo_app,count(*) as cont</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OUTPUT_WEB_BE_20170525 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>where</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> country = 'BIR' </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>		from OUTPUT_WEB_BIB </a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> semaforo_app) b  </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>		group by semaforo_app) b  </a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> a.color_app = b.semaforo_app</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>on a.color_app = b.semaforo_app</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>order by color_app</a:t>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> color_app</a:t>
           </a:r>
           <a:endParaRPr lang="it-IT">
             <a:effectLst/>
@@ -3129,61 +5943,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42885.595696412034" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="59">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="57"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="Ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42885.595696759257" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="59">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42885.619665972219" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="75">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -3192,7 +5952,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="57"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="73"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -3243,8 +6003,62 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42885.619667476851" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="75">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="73"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="75">
   <r>
     <s v="EWS App-BIB "/>
     <n v="1"/>
@@ -3254,9 +6068,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3267,9 +6082,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3280,9 +6096,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3293,9 +6110,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3306,9 +6124,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3319,9 +6138,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3332,9 +6152,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3345,9 +6166,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3358,9 +6180,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3371,9 +6194,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3384,9 +6208,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3397,9 +6222,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3410,9 +6236,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3423,9 +6250,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3436,9 +6264,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3449,9 +6278,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3462,9 +6292,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3475,9 +6306,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -3488,9 +6320,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3501,9 +6334,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3514,9 +6348,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3527,9 +6362,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3540,9 +6376,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3553,9 +6390,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3566,9 +6404,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3579,9 +6418,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3592,9 +6432,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3605,9 +6446,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3618,9 +6460,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3631,9 +6474,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3644,9 +6488,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3657,9 +6502,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3670,9 +6516,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3683,9 +6530,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3696,9 +6544,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3709,9 +6558,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3722,9 +6572,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3735,9 +6586,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3748,9 +6600,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3761,9 +6614,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3774,9 +6628,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -3787,9 +6642,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3800,9 +6656,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3813,9 +6670,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3826,9 +6684,10 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3839,9 +6698,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3852,9 +6712,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3865,9 +6726,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3878,9 +6740,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3891,9 +6754,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3904,9 +6768,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3917,9 +6782,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3930,9 +6796,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3943,9 +6810,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3956,9 +6824,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3969,9 +6838,10 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -3982,11 +6852,238 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <x v="0"/>
-    <m/>
-    <s v="Ok"/>
-  </r>
-  <r>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="58"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="59"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Segment"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="60"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Final Score"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="61"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="colore finale"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="62"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="63"/>
+    <s v="Matrix (Connection Node)"/>
+    <m/>
+    <s v="colore matrice primo rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="64"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Fatal (ex Fast-Track)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="65"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Trigger (ex Exception 1)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="66"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 4"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="67"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="score Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di score"/>
+    <s v="confronto sul campo detection_rationale"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="68"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="69"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="70"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="71"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="72"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="73"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR17"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <s v="Ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3996,10 +7093,11 @@
     <m/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -4009,14 +7107,13 @@
     <m/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="75">
   <r>
     <s v="EWS App-BIB "/>
     <n v="1"/>
@@ -4026,10 +7123,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4040,10 +7136,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4054,10 +7149,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4068,10 +7162,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4082,10 +7175,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4096,10 +7188,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4110,10 +7201,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4124,10 +7214,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4138,10 +7227,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4152,10 +7240,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4166,10 +7253,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4180,10 +7266,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4194,10 +7279,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4208,10 +7292,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4222,10 +7305,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4236,10 +7318,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4250,10 +7331,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4264,10 +7344,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-BIB "/>
@@ -4278,10 +7357,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_BIB)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4292,10 +7370,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4306,10 +7383,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4320,10 +7396,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4334,10 +7409,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4348,10 +7422,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4362,10 +7435,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4376,10 +7448,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4390,10 +7461,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4404,10 +7474,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4418,10 +7487,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4432,10 +7500,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4446,10 +7513,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4460,10 +7526,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4474,10 +7539,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4488,10 +7552,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4502,10 +7565,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4516,10 +7578,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4530,10 +7591,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4544,10 +7604,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4558,10 +7617,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4572,10 +7630,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4586,10 +7643,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-KOPER "/>
@@ -4600,10 +7656,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_KOPER)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4614,10 +7669,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4628,10 +7682,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4642,10 +7695,9 @@
     <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
     <s v="Non ci siano differenze in termine di numero"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4656,10 +7708,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4670,10 +7721,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4684,10 +7734,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di colore"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4698,10 +7747,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4712,10 +7760,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4726,10 +7773,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4740,10 +7786,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di score"/>
     <s v="confronto sul campo detection_rationale"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4754,10 +7799,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4768,10 +7812,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4782,10 +7825,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4796,10 +7838,9 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
   </r>
   <r>
     <s v="EWS App-ALEX BANK "/>
@@ -4810,14 +7851,219 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
     <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
     <s v="confronto sulla tabella finale singola banca (output_web_ALEX BANK)"/>
-    <s v="Ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="58"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="59"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Segment"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per segmento"/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="60"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="numerosità controparti per Final Score"/>
+    <s v="Sarà verificato che l'introduzione della nuova app 2.0 non abbia portato ad una perdita di record, aggregando i dati per colore finale "/>
+    <s v="Non ci siano differenze in termine di numero"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="61"/>
+    <s v="Final Score"/>
+    <m/>
+    <s v="colore finale"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="62"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="colore Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="63"/>
+    <s v="Matrix (Connection Node)"/>
+    <m/>
+    <s v="colore matrice primo rischio"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di colore"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="64"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Fatal (ex Fast-Track)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="65"/>
+    <s v="Decision List (Input Node)"/>
+    <m/>
+    <s v="accensione AQR Trigger (ex Exception 1)"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="66"/>
+    <s v="Exception (Connection Node)"/>
+    <m/>
+    <s v="accensione Exception 4"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="67"/>
+    <s v="Predictive Model"/>
+    <m/>
+    <s v="score Client Mispayment Module"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di score"/>
+    <s v="confronto sul campo detection_rationale"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="68"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="69"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR02"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="70"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="71"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="72"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
+    <s v="EWS App-BIR "/>
+    <n v="73"/>
+    <s v="Business Rules"/>
+    <m/>
+    <s v="BR17"/>
+    <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0"/>
+    <s v="Non ci siano differenze in termine di flag (accensione segnale)"/>
+    <s v="confronto sulla tabella finale singola banca (output_web_BIR)"/>
+    <x v="0"/>
+    <m/>
+    <s v="Ok"/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -4827,11 +8073,10 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -4841,13 +8086,162 @@
     <m/>
     <m/>
     <x v="1"/>
-    <x v="0"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <formats count="28">
+    <format dxfId="129">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="128">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="127">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="126">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="124">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="121">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="120">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="119">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="118">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="117">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="115">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="114">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="112">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="104">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -4892,160 +8286,160 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="43">
+    <format dxfId="173">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="172">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="171">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="170">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="169">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="168">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="165">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="162">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="159">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="158">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="157">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="156">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="155">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="150">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="149">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="148">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="147">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="143">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="142">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="141">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="136">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="135">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="134">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5058,8 +8452,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -5107,255 +8501,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="72">
+    <format dxfId="202">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="201">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="200">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="199">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="194">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="193">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="192">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="187">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="186">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="185">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="184">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="180">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="179">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="178">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="177">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="176">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="175">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <formats count="28">
-    <format dxfId="100">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="99">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="98">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="97">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="96">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="95">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="94">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="93">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="92">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="89">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="87">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="86">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="85">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="84">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="81">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="80">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="78">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="77">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="76">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="75">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="74">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="73">
+    <format dxfId="174">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5369,7 +8615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6051,80 +9297,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="103"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="109"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -6250,161 +9496,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90" t="s">
+      <c r="C37" s="95"/>
+      <c r="D37" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90" t="s">
+      <c r="C38" s="95"/>
+      <c r="D38" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90" t="s">
+      <c r="C39" s="95"/>
+      <c r="D39" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="90" t="s">
+      <c r="C40" s="95"/>
+      <c r="D40" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90" t="s">
+      <c r="C41" s="95"/>
+      <c r="D41" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="89"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="90" t="s">
+      <c r="E42" s="99"/>
+      <c r="F42" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90" t="s">
+      <c r="G42" s="96"/>
+      <c r="H42" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="104">
+      <c r="C44" s="95"/>
+      <c r="D44" s="97">
         <v>42879</v>
       </c>
-      <c r="E44" s="105"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="90" t="s">
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="104">
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="97">
         <v>42879</v>
       </c>
-      <c r="K44" s="101"/>
+      <c r="K44" s="99"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -6455,35 +9701,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -6534,6 +9780,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -6542,25 +9807,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6572,7 +9818,7 @@
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6601,38 +9847,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -7051,7 +10297,7 @@
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" s="73" t="s">
         <v>71</v>
@@ -7060,7 +10306,7 @@
         <v>78</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I15" s="69" t="s">
         <v>37</v>
@@ -7083,7 +10329,7 @@
       </c>
       <c r="D16" s="73"/>
       <c r="E16" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>71</v>
@@ -7092,7 +10338,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I16" s="69" t="s">
         <v>37</v>
@@ -7723,7 +10969,7 @@
       </c>
       <c r="D36" s="73"/>
       <c r="E36" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="73" t="s">
         <v>71</v>
@@ -7732,7 +10978,7 @@
         <v>78</v>
       </c>
       <c r="H36" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I36" s="69" t="s">
         <v>37</v>
@@ -7755,7 +11001,7 @@
       </c>
       <c r="D37" s="73"/>
       <c r="E37" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F37" s="73" t="s">
         <v>71</v>
@@ -7764,7 +11010,7 @@
         <v>78</v>
       </c>
       <c r="H37" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I37" s="69" t="s">
         <v>37</v>
@@ -8331,7 +11577,7 @@
       </c>
       <c r="D55" s="73"/>
       <c r="E55" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F55" s="73" t="s">
         <v>71</v>
@@ -8340,7 +11586,7 @@
         <v>78</v>
       </c>
       <c r="H55" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I55" s="69" t="s">
         <v>37</v>
@@ -8512,8 +11758,8 @@
       <c r="L60" s="81"/>
     </row>
     <row r="61" spans="1:12" s="66" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="125" t="s">
-        <v>128</v>
+      <c r="A61" s="89" t="s">
+        <v>126</v>
       </c>
       <c r="B61" s="70">
         <v>58</v>
@@ -8528,24 +11774,24 @@
       <c r="F61" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="126" t="s">
+      <c r="G61" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H61" s="125" t="s">
+      <c r="H61" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="127" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="128"/>
-      <c r="K61" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="L61" s="128"/>
+      <c r="I61" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="92"/>
+      <c r="K61" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" s="92"/>
     </row>
     <row r="62" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B62" s="70">
         <v>59</v>
@@ -8577,7 +11823,7 @@
     </row>
     <row r="63" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" s="70">
         <v>60</v>
@@ -8609,7 +11855,7 @@
     </row>
     <row r="64" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="70">
         <v>61</v>
@@ -8641,7 +11887,7 @@
     </row>
     <row r="65" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="70">
         <v>62</v>
@@ -8673,7 +11919,7 @@
     </row>
     <row r="66" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="70">
         <v>63</v>
@@ -8705,7 +11951,7 @@
     </row>
     <row r="67" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B67" s="70">
         <v>64</v>
@@ -8737,7 +11983,7 @@
     </row>
     <row r="68" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B68" s="70">
         <v>65</v>
@@ -8769,7 +12015,7 @@
     </row>
     <row r="69" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" s="70">
         <v>66</v>
@@ -8779,7 +12025,7 @@
       </c>
       <c r="D69" s="73"/>
       <c r="E69" s="70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" s="73" t="s">
         <v>71</v>
@@ -8801,7 +12047,7 @@
     </row>
     <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B70" s="70">
         <v>67</v>
@@ -8811,7 +12057,7 @@
       </c>
       <c r="D70" s="73"/>
       <c r="E70" s="70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F70" s="73" t="s">
         <v>71</v>
@@ -8820,7 +12066,7 @@
         <v>78</v>
       </c>
       <c r="H70" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I70" s="69" t="s">
         <v>37</v>
@@ -8833,7 +12079,7 @@
     </row>
     <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" s="70">
         <v>68</v>
@@ -8852,7 +12098,7 @@
         <v>80</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I71" s="69" t="s">
         <v>37</v>
@@ -8865,7 +12111,7 @@
     </row>
     <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72" s="70">
         <v>69</v>
@@ -8884,7 +12130,7 @@
         <v>80</v>
       </c>
       <c r="H72" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I72" s="69" t="s">
         <v>37</v>
@@ -8897,7 +12143,7 @@
     </row>
     <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B73" s="70">
         <v>70</v>
@@ -8916,7 +12162,7 @@
         <v>80</v>
       </c>
       <c r="H73" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I73" s="69" t="s">
         <v>37</v>
@@ -8929,7 +12175,7 @@
     </row>
     <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B74" s="70">
         <v>71</v>
@@ -8948,7 +12194,7 @@
         <v>80</v>
       </c>
       <c r="H74" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I74" s="69" t="s">
         <v>37</v>
@@ -8961,7 +12207,7 @@
     </row>
     <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B75" s="70">
         <v>72</v>
@@ -8980,7 +12226,7 @@
         <v>80</v>
       </c>
       <c r="H75" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I75" s="69" t="s">
         <v>37</v>
@@ -8993,7 +12239,7 @@
     </row>
     <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="77">
         <v>73</v>
@@ -9003,7 +12249,7 @@
       </c>
       <c r="D76" s="78"/>
       <c r="E76" s="77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F76" s="78" t="s">
         <v>71</v>
@@ -9012,7 +12258,7 @@
         <v>80</v>
       </c>
       <c r="H76" s="76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I76" s="80" t="s">
         <v>37</v>
@@ -9071,11 +12317,11 @@
     <col min="5" max="5" width="7.21875" style="13" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="3.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="13" customWidth="1"/>
     <col min="15" max="15" width="6.21875" style="13" customWidth="1"/>
@@ -9084,40 +12330,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="G1" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="116"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="119"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="123"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -9159,16 +12405,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -9186,9 +12432,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -9234,17 +12480,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="110"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="114"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9253,7 +12499,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -9261,28 +12507,28 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="122"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="126"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C10" s="39">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
       <c r="G10" s="33"/>
       <c r="H10" s="58" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>48</v>
@@ -9292,7 +12538,7 @@
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="57" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="60" t="s">
         <v>48</v>
@@ -9339,7 +12585,7 @@
         <v>37</v>
       </c>
       <c r="I12" s="35">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J12" s="29">
         <f>GETPIVOTDATA("ID",$H$10,"Verifica DSI","Ok")/GETPIVOTDATA("ID",$H$10)</f>
@@ -9373,7 +12619,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="26"/>
@@ -9387,10 +12633,10 @@
       <c r="E14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="59" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="I14" s="36">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J14" s="26"/>
       <c r="K14" s="27"/>
@@ -9644,7 +12890,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9660,8 +12906,8 @@
   </sheetPr>
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9676,10 +12922,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="124"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="84" t="s">
         <v>110</v>
       </c>
@@ -9712,10 +12958,10 @@
       <c r="C4" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="127" t="s">
         <v>115</v>
       </c>
       <c r="F4" s="86" t="s">
@@ -9729,8 +12975,8 @@
       <c r="C5" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="86" t="s">
         <v>117</v>
       </c>
@@ -9799,10 +13045,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C2:C40"/>
+  <dimension ref="C2:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9840,13 +13086,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="83" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="83" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="83" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="83" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9864,6 +13110,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -9977,15 +13232,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
   <ds:schemaRefs>
@@ -10002,6 +13248,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10015,12 +13269,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>